--- a/docs/Fieldwork/People list.xlsx
+++ b/docs/Fieldwork/People list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amarok/src/natur-i-norge/docs/Fieldwork/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87D3110D-621F-1D41-A5FC-19CC9838FB97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8837033-5A31-E646-8834-F2FE852A6A2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{4624BE88-9AAE-9C4E-B444-E4CB5E687DFF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="35">
   <si>
     <t>De som er involvert i utførelsen av arbeidet:</t>
   </si>
@@ -204,18 +204,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE2EFDA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -310,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -348,9 +342,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -704,7 +695,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="237" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -722,7 +713,7 @@
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="7"/>
-      <c r="F1" s="24"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
@@ -730,7 +721,7 @@
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="10"/>
-      <c r="F2" s="25"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
@@ -743,7 +734,7 @@
       <c r="E3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="25" t="s">
         <v>34</v>
       </c>
     </row>
@@ -759,292 +750,297 @@
       <c r="E4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+      <c r="C7"/>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="C8"/>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="C10"/>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="20" t="s">
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="16" t="s">
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="20" t="s">
+      <c r="F17" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="16" t="s">
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="20" t="s">
+      <c r="F18" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="16" t="s">
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="F19" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="23" t="s">
+      <c r="C20" s="21"/>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="27" t="s">
+      <c r="F20" s="26" t="s">
         <v>33</v>
       </c>
     </row>

--- a/docs/Fieldwork/People list.xlsx
+++ b/docs/Fieldwork/People list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amarok/src/natur-i-norge/docs/Fieldwork/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8837033-5A31-E646-8834-F2FE852A6A2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C58802F-9D2D-6042-9F93-6D14C2074845}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{4624BE88-9AAE-9C4E-B444-E4CB5E687DFF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4624BE88-9AAE-9C4E-B444-E4CB5E687DFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -695,7 +695,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="237" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
